--- a/Modules/X2/X2_BOM.xlsx
+++ b/Modules/X2/X2_BOM.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\X2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D9D96E-2269-420E-9B3B-FA741664F14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F575DA-B950-46B7-AFD1-A2ED1A654812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CVMod8 V2" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
